--- a/Journaux_de_travail/Edward.xlsx
+++ b/Journaux_de_travail/Edward.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="8700"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>Elaboration des interfaces de jeu et menu principal JavaFX</t>
+  </si>
+  <si>
+    <t>Modèle conceptuel de la base de donnée et fichier SQL créant la base pour faciliter l'implémentation Spring</t>
+  </si>
+  <si>
+    <t>Implémentation du jeu en JavaFX. Création des tuiles et des divers rack en objets JavaFX et continuation du controlleur de la scène du jeu</t>
   </si>
 </sst>
 </file>
@@ -148,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -168,6 +174,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,7 +489,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,18 +556,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>43018</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>43032</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="7">
+        <v>43039</v>
+      </c>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
     </row>
@@ -673,7 +696,7 @@
       </c>
       <c r="C32" s="11">
         <f>SUM(C5:C31)</f>
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Journaux_de_travail/Edward.xlsx
+++ b/Journaux_de_travail/Edward.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="8700"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -52,6 +52,21 @@
   </si>
   <si>
     <t>Implémentation du jeu en JavaFX. Création des tuiles et des divers rack en objets JavaFX et continuation du controlleur de la scène du jeu</t>
+  </si>
+  <si>
+    <t>Début du refactoring client, modification des méthodes de déplacement des tuiles pour aider à l'implémentation du drag-drop</t>
+  </si>
+  <si>
+    <t>Refactoring du mouvement et début de l'implémentation du drag-drop</t>
+  </si>
+  <si>
+    <t>Création de selection lettre pour le joker côté client en JavaFX</t>
+  </si>
+  <si>
+    <t>Création via le code des tuiles pour la selection du joker avec alphabet tiré de la base de données côté serveur, résolution de bug de l'API pour récupérer l'alphabet</t>
+  </si>
+  <si>
+    <t>Continuation des méthodes du controller et des interfaces JavaFX hors-jeu</t>
   </si>
 </sst>
 </file>
@@ -154,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -177,6 +192,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,50 +596,86 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>43039</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
+      <c r="B10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>43046</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>43053</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="9">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+      <c r="A13" s="7">
+        <v>43060</v>
+      </c>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+      <c r="A14" s="7">
+        <v>43067</v>
+      </c>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
+      <c r="A15" s="7">
+        <v>43074</v>
+      </c>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>43081</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>43088</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="9">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+      <c r="A18" s="7">
+        <v>42737</v>
+      </c>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
     </row>
@@ -696,7 +750,7 @@
       </c>
       <c r="C32" s="11">
         <f>SUM(C5:C31)</f>
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Journaux_de_travail/Edward.xlsx
+++ b/Journaux_de_travail/Edward.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Début du refactoring client, modification des méthodes de déplacement des tuiles pour aider à l'implémentation du drag-drop</t>
   </si>
   <si>
-    <t>Refactoring du mouvement et début de l'implémentation du drag-drop</t>
-  </si>
-  <si>
     <t>Création de selection lettre pour le joker côté client en JavaFX</t>
   </si>
   <si>
@@ -67,6 +64,30 @@
   </si>
   <si>
     <t>Continuation des méthodes du controller et des interfaces JavaFX hors-jeu</t>
+  </si>
+  <si>
+    <t>Tentative de refactoring du mouvement des tuiles pour implémentation d'une fonctionnalité glisser-déposer</t>
+  </si>
+  <si>
+    <t>Début d'implémentation des modes (tournoi et duel) côté client</t>
+  </si>
+  <si>
+    <t>Finition de l'affichage et création d'amis et liste noire ainsi que les invitations côté client</t>
+  </si>
+  <si>
+    <t>Implémentation des invitations côté client et des amis/joueurs bloqués.</t>
+  </si>
+  <si>
+    <t>Création de tournois et duels chez le client. Petites modifications de l'API utilisée par le client pour la récupération des données</t>
+  </si>
+  <si>
+    <t>Implémentation des pouvoirs côté client ainsi que le système de pièces</t>
+  </si>
+  <si>
+    <t>Interface graphique pour la sélection de joueurs pour les tournois et duels, correction de bugs avec ceux-cis</t>
+  </si>
+  <si>
+    <t>Ajustements FXML pour toutes les interfaces, revue des éléments nécessaires et leurs controlleurs</t>
   </si>
 </sst>
 </file>
@@ -504,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,7 +622,7 @@
         <v>43039</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9">
         <v>4</v>
@@ -612,7 +633,7 @@
         <v>43046</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="9">
         <v>5</v>
@@ -623,75 +644,107 @@
         <v>43053</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>43060</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
-        <v>43067</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>43074</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-    </row>
-    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>43081</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>43088</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
-        <v>43081</v>
+        <v>42737</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C16" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
-        <v>43088</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>42738</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C17" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
-        <v>42737</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
+        <v>42739</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>42740</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>42741</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>42742</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -735,22 +788,12 @@
       <c r="C29" s="9"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="10" t="s">
+      <c r="B30" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="11">
-        <f>SUM(C5:C31)</f>
-        <v>41</v>
+      <c r="C30" s="11">
+        <f>SUM(C5:C29)</f>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Journaux_de_travail/Edward.xlsx
+++ b/Journaux_de_travail/Edward.xlsx
@@ -81,13 +81,13 @@
     <t>Création de tournois et duels chez le client. Petites modifications de l'API utilisée par le client pour la récupération des données</t>
   </si>
   <si>
-    <t>Implémentation des pouvoirs côté client ainsi que le système de pièces</t>
-  </si>
-  <si>
     <t>Interface graphique pour la sélection de joueurs pour les tournois et duels, correction de bugs avec ceux-cis</t>
   </si>
   <si>
     <t>Ajustements FXML pour toutes les interfaces, revue des éléments nécessaires et leurs controlleurs</t>
+  </si>
+  <si>
+    <t>Implémentation des pouvoirs ainsi que le système de pièces côté client</t>
   </si>
 </sst>
 </file>
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,7 +655,7 @@
         <v>43060</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="9">
         <v>3</v>
@@ -710,7 +710,7 @@
         <v>42739</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="9">
         <v>6</v>
@@ -743,9 +743,11 @@
         <v>42742</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="C21" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
@@ -793,7 +795,7 @@
       </c>
       <c r="C30" s="11">
         <f>SUM(C5:C29)</f>
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Journaux_de_travail/Edward.xlsx
+++ b/Journaux_de_travail/Edward.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>Implémentation des pouvoirs ainsi que le système de pièces côté client</t>
+  </si>
+  <si>
+    <t>Rafraichissement de l'interface de jeu et correction de bugs</t>
+  </si>
+  <si>
+    <t>Correction de bugs signalés pendant les tests de l'interface, ajout de confirmation aux pouvoirs du jeu, ajout de documentation côté client</t>
   </si>
 </sst>
 </file>
@@ -527,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,15 +755,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>42744</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>42748</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="9">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
@@ -795,7 +813,7 @@
       </c>
       <c r="C30" s="11">
         <f>SUM(C5:C29)</f>
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
